--- a/doc/PLC设备接入分析/PLC设备接入分析.xlsx
+++ b/doc/PLC设备接入分析/PLC设备接入分析.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="集中控制器-调灯" sheetId="1" r:id="rId1"/>
     <sheet name="节点（设备）属性" sheetId="2" r:id="rId2"/>
-    <sheet name="集中控制器属性" sheetId="3" r:id="rId3"/>
-    <sheet name="设备编码管理" sheetId="13" r:id="rId4"/>
-    <sheet name="集中控制器涉及操作" sheetId="7" r:id="rId5"/>
-    <sheet name="协议 + 操作定义" sheetId="10" r:id="rId6"/>
-    <sheet name="消息接入类型" sheetId="12" r:id="rId7"/>
-    <sheet name="报警属性" sheetId="8" r:id="rId8"/>
-    <sheet name="集中器分组属性" sheetId="9" r:id="rId9"/>
-    <sheet name="物理架构及流程" sheetId="4" r:id="rId10"/>
-    <sheet name="报文分析" sheetId="5" r:id="rId11"/>
-    <sheet name="集中器配置流程" sheetId="15" r:id="rId12"/>
-    <sheet name="心跳原理及设计" sheetId="16" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId3"/>
+    <sheet name="集中控制器属性" sheetId="3" r:id="rId4"/>
+    <sheet name="设备编码管理" sheetId="13" r:id="rId5"/>
+    <sheet name="集中控制器涉及操作" sheetId="7" r:id="rId6"/>
+    <sheet name="协议 + 操作定义" sheetId="10" r:id="rId7"/>
+    <sheet name="消息接入类型" sheetId="12" r:id="rId8"/>
+    <sheet name="报警属性" sheetId="8" r:id="rId9"/>
+    <sheet name="集中器分组属性" sheetId="9" r:id="rId10"/>
+    <sheet name="物理架构及流程" sheetId="4" r:id="rId11"/>
+    <sheet name="报文分析" sheetId="5" r:id="rId12"/>
+    <sheet name="集中器配置流程" sheetId="15" r:id="rId13"/>
+    <sheet name="心跳原理及设计" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5699,6 +5700,8 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5729,8 +5732,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5754,11 +5755,11 @@
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5766,7 +5767,7 @@
 </file>
 
 <file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5782,7 +5783,7 @@
 </file>
 
 <file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5790,11 +5791,11 @@
 </file>
 
 <file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5806,7 +5807,7 @@
 </file>
 
 <file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5814,7 +5815,7 @@
 </file>
 
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5830,11 +5831,11 @@
 </file>
 
 <file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5846,15 +5847,15 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5866,7 +5867,7 @@
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6577,6 +6578,1413 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276724" y="2143125"/>
+          <a:ext cx="5172075" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267199" y="619125"/>
+          <a:ext cx="5172075" cy="1438276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="609599"/>
+          <a:ext cx="1695450" cy="2581275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+            <a:t>源设备</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991099" y="1323976"/>
+          <a:ext cx="495301" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>盒子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105399" y="2286001"/>
+          <a:ext cx="942976" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>流媒体服务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180973</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7038973" y="2295526"/>
+          <a:ext cx="1143001" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>rtmp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>服务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(nginx)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438899" y="1323976"/>
+          <a:ext cx="942976" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>物联网平台</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8000999" y="1323976"/>
+          <a:ext cx="781051" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>应用平台</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628899" y="895351"/>
+          <a:ext cx="942976" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>摄像头 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>sn1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628899" y="1457326"/>
+          <a:ext cx="942976" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>摄像头 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>sn2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628899" y="1933576"/>
+          <a:ext cx="942976" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>摄像头 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>sn3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628899" y="2438401"/>
+          <a:ext cx="942976" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>摄像头  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>sn ...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>sn……</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9782174" y="628650"/>
+          <a:ext cx="1514475" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+            <a:t>webConsole</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10010774" y="2152651"/>
+          <a:ext cx="923926" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>直播</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10010774" y="2505076"/>
+          <a:ext cx="923926" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>点播</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982199" y="1552576"/>
+          <a:ext cx="923926" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>控制策略</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9972674" y="1200151"/>
+          <a:ext cx="923926" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>控制指令</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="左右箭头 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676650" y="1238248"/>
+          <a:ext cx="857250" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>控制流</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="左右箭头 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="1285873"/>
+          <a:ext cx="857250" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>控制流</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="左右箭头 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676650" y="2228848"/>
+          <a:ext cx="857250" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>实时流</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="左右箭头 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9124950" y="2209798"/>
+          <a:ext cx="857250" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>实时流</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198374</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048374" y="2428875"/>
+          <a:ext cx="1008000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486399" y="1457325"/>
+          <a:ext cx="952500" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7391400" y="1466851"/>
+          <a:ext cx="609599" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -7144,7 +8552,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -8059,7 +9467,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9594,7 +11002,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10041,10 +11449,52 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="4" spans="2:5">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B12:G34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10074,12 +11524,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10090,63 +11540,63 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1"/>
     <row r="2" spans="2:12" ht="15" thickBot="1">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="107" t="s">
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="107" t="s">
+      <c r="H2" s="111"/>
+      <c r="I2" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="109"/>
+      <c r="J2" s="111"/>
     </row>
     <row r="3" spans="2:12" ht="15" thickBot="1">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="110" t="s">
+      <c r="G3" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="105" t="s">
+      <c r="H3" s="113"/>
+      <c r="I3" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="107" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="18" t="s">
         <v>64</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
     </row>
     <row r="5" spans="2:12" ht="15" thickBot="1">
       <c r="B5" s="19" t="s">
@@ -10355,11 +11805,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:W98"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -10827,13 +12277,13 @@
       </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="C49" s="112" t="s">
+      <c r="C49" s="114" t="s">
         <v>497</v>
       </c>
       <c r="D49" s="82" t="s">
         <v>498</v>
       </c>
-      <c r="E49" s="105" t="s">
+      <c r="E49" s="107" t="s">
         <v>500</v>
       </c>
       <c r="F49" t="s">
@@ -10844,11 +12294,11 @@
       </c>
     </row>
     <row r="50" spans="2:7" ht="15" thickBot="1">
-      <c r="C50" s="113"/>
+      <c r="C50" s="115"/>
       <c r="D50" s="80" t="s">
         <v>499</v>
       </c>
-      <c r="E50" s="106"/>
+      <c r="E50" s="108"/>
       <c r="F50" t="s">
         <v>505</v>
       </c>
@@ -11095,7 +12545,7 @@
       </c>
     </row>
     <row r="80" spans="2:15" ht="15" thickBot="1">
-      <c r="C80" s="112" t="s">
+      <c r="C80" s="114" t="s">
         <v>544</v>
       </c>
       <c r="D80" s="20" t="s">
@@ -11106,7 +12556,7 @@
       </c>
     </row>
     <row r="81" spans="2:21" ht="27.75" thickBot="1">
-      <c r="C81" s="114"/>
+      <c r="C81" s="116"/>
       <c r="D81" s="20" t="s">
         <v>546</v>
       </c>
@@ -11115,7 +12565,7 @@
       </c>
     </row>
     <row r="82" spans="2:21" ht="15" thickBot="1">
-      <c r="C82" s="113"/>
+      <c r="C82" s="115"/>
       <c r="D82" s="20" t="s">
         <v>547</v>
       </c>
@@ -11286,7 +12736,7 @@
       </c>
     </row>
     <row r="91" spans="2:21" ht="15" thickBot="1">
-      <c r="C91" s="112" t="s">
+      <c r="C91" s="114" t="s">
         <v>544</v>
       </c>
       <c r="D91" s="20" t="s">
@@ -11318,7 +12768,7 @@
       </c>
     </row>
     <row r="92" spans="2:21" ht="27.75" thickBot="1">
-      <c r="C92" s="114"/>
+      <c r="C92" s="116"/>
       <c r="D92" s="20" t="s">
         <v>546</v>
       </c>
@@ -11348,7 +12798,7 @@
       </c>
     </row>
     <row r="93" spans="2:21" ht="15" thickBot="1">
-      <c r="C93" s="113"/>
+      <c r="C93" s="115"/>
       <c r="D93" s="20" t="s">
         <v>547</v>
       </c>
@@ -11401,12 +12851,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11416,15 +12866,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" s="100" customFormat="1" ht="20.25">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="105" t="s">
         <v>635</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="105" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="106" t="s">
         <v>634</v>
       </c>
       <c r="G5" t="s">
@@ -11432,71 +12882,72 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="106" t="s">
         <v>637</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="F6" s="116" t="s">
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="F6" s="106" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="106" t="s">
         <v>646</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="106" t="s">
         <v>639</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="F8" s="116" t="s">
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="F8" s="106" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="106" t="s">
         <v>641</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="106" t="s">
         <v>642</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="106" t="s">
         <v>643</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="106" t="s">
         <v>644</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="106" t="s">
         <v>645</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11506,7 +12957,7 @@
   <dimension ref="B2:P45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11844,7 +13295,332 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId3" name="Control 1">
+        <control shapeId="2062" r:id="rId3" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId3" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId5" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId5" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId7" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId7" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId9" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId9" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId11" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId11" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId13" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId13" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId15" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId15" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId16" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId16" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId17" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId17" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId18" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1428750</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId18" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId20" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1428750</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId20" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId21" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId21" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId22" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId22" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId24" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -11864,332 +13640,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId3" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId5" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId5" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId7" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1428750</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId8" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId10" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1428750</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId10" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId11" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId11" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId12" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId12" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId13" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId13" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId14" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId14" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId16" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId16" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId18" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId18" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId20" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId20" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId22" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId22" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId24" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId24" name="Control 14"/>
+        <control shapeId="2049" r:id="rId24" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12197,12 +13648,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12494,7 +13961,282 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4108" r:id="rId3" name="Control 12">
+        <control shapeId="4097" r:id="rId3" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4097" r:id="rId3" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4098" r:id="rId5" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4098" r:id="rId5" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4099" r:id="rId6" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4099" r:id="rId6" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4100" r:id="rId7" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4100" r:id="rId7" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4101" r:id="rId8" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4101" r:id="rId8" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4102" r:id="rId9" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4102" r:id="rId9" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4103" r:id="rId10" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4103" r:id="rId10" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4104" r:id="rId11" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4104" r:id="rId11" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4105" r:id="rId13" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4105" r:id="rId13" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4106" r:id="rId14" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4106" r:id="rId14" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4107" r:id="rId16" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4107" r:id="rId16" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4108" r:id="rId17" name="Control 12">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -12514,289 +14256,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4108" r:id="rId3" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4107" r:id="rId5" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4107" r:id="rId5" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4106" r:id="rId6" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4106" r:id="rId6" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4105" r:id="rId8" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4105" r:id="rId8" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4104" r:id="rId9" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>1123950</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4104" r:id="rId9" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4103" r:id="rId11" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4103" r:id="rId11" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4102" r:id="rId12" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4102" r:id="rId12" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId13" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4101" r:id="rId13" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId14" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4100" r:id="rId14" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId15" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4099" r:id="rId15" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId16" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4098" r:id="rId16" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId17" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4097" r:id="rId17" name="Control 1"/>
+        <control shapeId="4108" r:id="rId17" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:E32"/>
@@ -12909,7 +14376,82 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="13316" r:id="rId3" name="Control 4">
+        <control shapeId="13313" r:id="rId3" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13313" r:id="rId3" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13314" r:id="rId5" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13314" r:id="rId5" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13315" r:id="rId6" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13315" r:id="rId6" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13316" r:id="rId8" name="Control 4">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -12929,89 +14471,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="13316" r:id="rId3" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13315" r:id="rId5" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13315" r:id="rId5" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13314" r:id="rId7" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13314" r:id="rId7" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13313" r:id="rId8" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13313" r:id="rId8" name="Control 1"/>
+        <control shapeId="13316" r:id="rId8" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:G11"/>
   <sheetViews>
@@ -13087,11 +14554,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -14686,7 +16153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:J20"/>
   <sheetViews>
@@ -14944,7 +16411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C15"/>
   <sheetViews>
@@ -15035,46 +16502,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="4" spans="2:5">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/PLC设备接入分析/PLC设备接入分析.xlsx
+++ b/doc/PLC设备接入分析/PLC设备接入分析.xlsx
@@ -4,23 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="集中控制器-调灯" sheetId="1" r:id="rId1"/>
     <sheet name="节点（设备）属性" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId3"/>
-    <sheet name="集中控制器属性" sheetId="3" r:id="rId4"/>
-    <sheet name="设备编码管理" sheetId="13" r:id="rId5"/>
-    <sheet name="集中控制器涉及操作" sheetId="7" r:id="rId6"/>
-    <sheet name="协议 + 操作定义" sheetId="10" r:id="rId7"/>
-    <sheet name="消息接入类型" sheetId="12" r:id="rId8"/>
-    <sheet name="报警属性" sheetId="8" r:id="rId9"/>
-    <sheet name="集中器分组属性" sheetId="9" r:id="rId10"/>
-    <sheet name="物理架构及流程" sheetId="4" r:id="rId11"/>
-    <sheet name="报文分析" sheetId="5" r:id="rId12"/>
-    <sheet name="集中器配置流程" sheetId="15" r:id="rId13"/>
-    <sheet name="心跳原理及设计" sheetId="16" r:id="rId14"/>
+    <sheet name="集中控制器属性" sheetId="3" r:id="rId3"/>
+    <sheet name="设备编码管理" sheetId="13" r:id="rId4"/>
+    <sheet name="集中控制器涉及操作" sheetId="7" r:id="rId5"/>
+    <sheet name="协议 + 操作定义" sheetId="10" r:id="rId6"/>
+    <sheet name="消息接入类型" sheetId="12" r:id="rId7"/>
+    <sheet name="报警属性" sheetId="8" r:id="rId8"/>
+    <sheet name="集中器分组属性" sheetId="9" r:id="rId9"/>
+    <sheet name="物理架构及流程" sheetId="4" r:id="rId10"/>
+    <sheet name="报文分析" sheetId="5" r:id="rId11"/>
+    <sheet name="集中器配置流程" sheetId="15" r:id="rId12"/>
+    <sheet name="心跳原理及设计" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5755,11 +5754,11 @@
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5767,7 +5766,7 @@
 </file>
 
 <file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5783,7 +5782,7 @@
 </file>
 
 <file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5791,11 +5790,11 @@
 </file>
 
 <file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5807,7 +5806,7 @@
 </file>
 
 <file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5815,7 +5814,7 @@
 </file>
 
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5831,11 +5830,11 @@
 </file>
 
 <file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5847,15 +5846,15 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5867,7 +5866,7 @@
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6578,1413 +6577,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4276724" y="2143125"/>
-          <a:ext cx="5172075" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4267199" y="619125"/>
-          <a:ext cx="5172075" cy="1438276"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矩形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2257425" y="609599"/>
-          <a:ext cx="1695450" cy="2581275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
-            <a:t>源设备</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="圆角矩形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4991099" y="1323976"/>
-          <a:ext cx="495301" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>盒子</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="圆角矩形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5105399" y="2286001"/>
-          <a:ext cx="942976" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>流媒体服务</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180973</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="圆角矩形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7038973" y="2295526"/>
-          <a:ext cx="1143001" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>rtmp</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>服务</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>(nginx)</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="圆角矩形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6438899" y="1323976"/>
-          <a:ext cx="942976" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>物联网平台</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="圆角矩形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8000999" y="1323976"/>
-          <a:ext cx="781051" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>应用平台</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="圆角矩形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2628899" y="895351"/>
-          <a:ext cx="942976" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>摄像头 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>sn1</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="圆角矩形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2628899" y="1457326"/>
-          <a:ext cx="942976" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>摄像头 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>sn2</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="圆角矩形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2628899" y="1933576"/>
-          <a:ext cx="942976" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>摄像头 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>sn3</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="圆角矩形 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2628899" y="2438401"/>
-          <a:ext cx="942976" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>摄像头  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>sn ...</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>sn……</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矩形 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9782174" y="628650"/>
-          <a:ext cx="1514475" cy="2533650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
-            <a:t>webConsole</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="圆角矩形 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10010774" y="2152651"/>
-          <a:ext cx="923926" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>直播</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="圆角矩形 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10010774" y="2505076"/>
-          <a:ext cx="923926" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>点播</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="圆角矩形 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9982199" y="1552576"/>
-          <a:ext cx="923926" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>控制策略</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="圆角矩形 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9972674" y="1200151"/>
-          <a:ext cx="923926" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>控制指令</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="左右箭头 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3676650" y="1238248"/>
-          <a:ext cx="857250" cy="457201"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>控制流</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19048</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="左右箭头 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9105900" y="1285873"/>
-          <a:ext cx="857250" cy="457201"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>控制流</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57148</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="左右箭头 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3676650" y="2228848"/>
-          <a:ext cx="857250" cy="457201"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>实时流</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38098</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="左右箭头 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9124950" y="2209798"/>
-          <a:ext cx="857250" cy="457201"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>实时流</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>198374</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6048374" y="2428875"/>
-          <a:ext cx="1008000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486399" y="1457325"/>
-          <a:ext cx="952500" cy="9526"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7391400" y="1466851"/>
-          <a:ext cx="609599" cy="9524"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -8552,7 +7144,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -9467,7 +8059,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11002,7 +9594,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11449,48 +10041,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="4" spans="2:5">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B12:G34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -11524,7 +10074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N28"/>
   <sheetViews>
@@ -11805,12 +10355,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:W98"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12851,7 +11401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G15"/>
   <sheetViews>
@@ -13295,7 +11845,332 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId3" name="Control 14">
+        <control shapeId="2049" r:id="rId3" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId3" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId5" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId5" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId7" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId8" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1428750</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId8" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId10" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1428750</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId10" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId11" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId11" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId12" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId12" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId13" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId13" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId14" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId14" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId16" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId16" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId18" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId18" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId20" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId20" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId22" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId22" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId24" name="Control 14">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -13315,332 +12190,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId3" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId5" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId5" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId7" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId7" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId9" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId9" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId11" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId11" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId13" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId13" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId15" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId15" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId16" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId16" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId17" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId17" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId18" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1428750</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId18" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId20" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1428750</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId20" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId21" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId21" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId22" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId22" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId24" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId24" name="Control 1"/>
+        <control shapeId="2062" r:id="rId24" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13648,22 +12198,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:K25"/>
@@ -13961,7 +12495,282 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId3" name="Control 1">
+        <control shapeId="4108" r:id="rId3" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4108" r:id="rId3" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4107" r:id="rId5" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4107" r:id="rId5" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4106" r:id="rId6" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4106" r:id="rId6" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4105" r:id="rId8" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4105" r:id="rId8" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4104" r:id="rId9" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4104" r:id="rId9" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4103" r:id="rId11" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4103" r:id="rId11" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4102" r:id="rId12" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4102" r:id="rId12" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4101" r:id="rId13" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4101" r:id="rId13" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4100" r:id="rId14" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4100" r:id="rId14" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4099" r:id="rId15" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4099" r:id="rId15" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4098" r:id="rId16" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4098" r:id="rId16" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4097" r:id="rId17" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -13981,289 +12790,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId3" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId5" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4098" r:id="rId5" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId6" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4099" r:id="rId6" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId7" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4100" r:id="rId7" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId8" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4101" r:id="rId8" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4102" r:id="rId9" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4102" r:id="rId9" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4103" r:id="rId10" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4103" r:id="rId10" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4104" r:id="rId11" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>1123950</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4104" r:id="rId11" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4105" r:id="rId13" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4105" r:id="rId13" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4106" r:id="rId14" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4106" r:id="rId14" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4107" r:id="rId16" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4107" r:id="rId16" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4108" r:id="rId17" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4108" r:id="rId17" name="Control 12"/>
+        <control shapeId="4097" r:id="rId17" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:E32"/>
@@ -14376,7 +12910,82 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="13313" r:id="rId3" name="Control 1">
+        <control shapeId="13316" r:id="rId3" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13316" r:id="rId3" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13315" r:id="rId5" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13315" r:id="rId5" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13314" r:id="rId7" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13314" r:id="rId7" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13313" r:id="rId8" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -14396,89 +13005,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="13313" r:id="rId3" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13314" r:id="rId5" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13314" r:id="rId5" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13315" r:id="rId6" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13315" r:id="rId6" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13316" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13316" r:id="rId8" name="Control 4"/>
+        <control shapeId="13313" r:id="rId8" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:G11"/>
   <sheetViews>
@@ -14554,7 +13088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L68"/>
   <sheetViews>
@@ -16153,7 +14687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:J20"/>
   <sheetViews>
@@ -16411,7 +14945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C15"/>
   <sheetViews>
@@ -16502,4 +15036,46 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="4" spans="2:5">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/PLC设备接入分析/PLC设备接入分析.xlsx
+++ b/doc/PLC设备接入分析/PLC设备接入分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="集中控制器-调灯" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="报文分析" sheetId="5" r:id="rId11"/>
     <sheet name="集中器配置流程" sheetId="15" r:id="rId12"/>
     <sheet name="心跳原理及设计" sheetId="16" r:id="rId13"/>
+    <sheet name="设备安装及物理部网" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5754,11 +5755,11 @@
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5766,7 +5767,7 @@
 </file>
 
 <file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5782,7 +5783,7 @@
 </file>
 
 <file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5790,11 +5791,11 @@
 </file>
 
 <file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5806,7 +5807,7 @@
 </file>
 
 <file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5814,7 +5815,7 @@
 </file>
 
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5830,11 +5831,11 @@
 </file>
 
 <file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5846,15 +5847,15 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5866,7 +5867,7 @@
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10043,7 +10044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B12:G34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -10359,7 +10360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -11406,7 +11407,7 @@
   <dimension ref="B3:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11498,6 +11499,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11845,7 +11861,332 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId3" name="Control 1">
+        <control shapeId="2062" r:id="rId3" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId3" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId5" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId5" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId7" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId7" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId9" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId9" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId11" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId11" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId13" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId13" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId15" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId15" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId16" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId16" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId17" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId17" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId18" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1428750</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId18" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId20" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1428750</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId20" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId21" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId21" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId22" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId22" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId24" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -11865,332 +12206,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId3" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId5" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId5" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId7" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1428750</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId8" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId10" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1428750</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId10" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId11" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId11" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId12" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId12" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId13" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId13" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId14" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId14" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId16" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId16" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId18" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId18" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId20" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId20" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId22" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId22" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId24" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId24" name="Control 14"/>
+        <control shapeId="2049" r:id="rId24" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12495,7 +12511,282 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4108" r:id="rId3" name="Control 12">
+        <control shapeId="4097" r:id="rId3" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4097" r:id="rId3" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4098" r:id="rId5" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4098" r:id="rId5" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4099" r:id="rId6" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4099" r:id="rId6" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4100" r:id="rId7" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4100" r:id="rId7" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4101" r:id="rId8" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4101" r:id="rId8" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4102" r:id="rId9" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4102" r:id="rId9" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4103" r:id="rId10" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4103" r:id="rId10" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4104" r:id="rId11" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4104" r:id="rId11" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4105" r:id="rId13" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4105" r:id="rId13" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4106" r:id="rId14" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4106" r:id="rId14" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4107" r:id="rId16" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4107" r:id="rId16" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4108" r:id="rId17" name="Control 12">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -12515,282 +12806,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4108" r:id="rId3" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4107" r:id="rId5" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4107" r:id="rId5" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4106" r:id="rId6" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4106" r:id="rId6" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4105" r:id="rId8" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4105" r:id="rId8" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4104" r:id="rId9" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>1123950</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4104" r:id="rId9" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4103" r:id="rId11" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4103" r:id="rId11" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4102" r:id="rId12" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4102" r:id="rId12" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId13" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4101" r:id="rId13" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId14" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4100" r:id="rId14" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId15" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4099" r:id="rId15" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId16" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4098" r:id="rId16" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId17" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4097" r:id="rId17" name="Control 1"/>
+        <control shapeId="4108" r:id="rId17" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12910,7 +12926,82 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="13316" r:id="rId3" name="Control 4">
+        <control shapeId="13313" r:id="rId3" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13313" r:id="rId3" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13314" r:id="rId5" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13314" r:id="rId5" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13315" r:id="rId6" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13315" r:id="rId6" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13316" r:id="rId8" name="Control 4">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -12930,82 +13021,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="13316" r:id="rId3" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13315" r:id="rId5" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13315" r:id="rId5" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13314" r:id="rId7" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13314" r:id="rId7" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13313" r:id="rId8" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13313" r:id="rId8" name="Control 1"/>
+        <control shapeId="13316" r:id="rId8" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
